--- a/Algemene documentatie/Logboek.xlsx
+++ b/Algemene documentatie/Logboek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe58f1971da5aea/KU_Leuven/BachlorProef/BachlorProefCommunicatieEnEinde/Algemene documentatie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_AD4D7A0C205A6B9A452FA860E71943545BDEDD87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C6B6F48-70A5-46F2-83C4-5B4519F09027}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="11_AD4D7A0C205A6B9A452FA860E71943545BDEDD87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7404ED69-FE42-4074-8555-F0125D812937}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-6228" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>TFT lcd schakeling gemaakt en beginnen met uitzoeken hoe het werkt. Het is gelukt om demo projecten up te loaden.</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Tijd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ik ben met alle groepen gaan praten om een samenvatting te maken over de communicatie tussen de puzzels. Deze samenvatting is Datacommunicatie.docx. Een korte uitleg over MQTT. In deze file staat ook wie, naar welke directory moet luisteren. En wie wanneer naar welke directory moet publishen. </t>
+  </si>
+  <si>
+    <t>6u</t>
   </si>
 </sst>
 </file>
@@ -101,9 +107,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -119,11 +122,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -136,12 +148,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -175,9 +181,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{48CA8546-95D5-4544-87D7-9BEA22146C01}" name="Tabel4" displayName="Tabel4" ref="A2:C44" totalsRowShown="0" dataDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A2:C44" xr:uid="{48CA8546-95D5-4544-87D7-9BEA22146C01}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{34867525-24F6-4C85-B324-1B678351983D}" name="Datum" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{1EE0890A-FFB1-45C7-B787-E5E87FC39E5F}" name="Werk" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{332CC751-8B3A-4CD6-B655-93F31E1492F4}" name="Tijd" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{34867525-24F6-4C85-B324-1B678351983D}" name="Datum" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{1EE0890A-FFB1-45C7-B787-E5E87FC39E5F}" name="Werk" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{332CC751-8B3A-4CD6-B655-93F31E1492F4}" name="Tijd" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -449,255 +455,261 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="12.21875" style="4" customWidth="1"/>
     <col min="2" max="2" width="108.33203125" customWidth="1"/>
     <col min="3" max="3" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>44620</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>44621</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>44628</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
+      <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="8"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="8"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="8"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="8"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="8"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="8"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Algemene documentatie/Logboek.xlsx
+++ b/Algemene documentatie/Logboek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe58f1971da5aea/KU_Leuven/BachlorProef/BachlorProefCommunicatieEnEinde/Algemene documentatie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\KU_Leuven\BachlorProef\BachlorProefCommunicatieEnEinde\Algemene documentatie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="11_AD4D7A0C205A6B9A452FA860E71943545BDEDD87" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7404ED69-FE42-4074-8555-F0125D812937}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5D9016-DAD9-43B6-B42D-314C12252779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>TFT lcd schakeling gemaakt en beginnen met uitzoeken hoe het werkt. Het is gelukt om demo projecten up te loaden.</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>6u</t>
+  </si>
+  <si>
+    <t>Vandaag zijn de componenten toegekomen, en dus heb ik veel vooruitgang kunnen maken! De speciale druk knoppen ontbraken, en er ontbrak ook één keypad. Maar vandaag heb ik met een keypad, een lcd scherm en een solenoïde een werkende breadbord implementatie kunnen maken van het deurslot. De start en reset knop heb ik geschakelt, maar ze hebben nog niet de juiste functionaliteit in de code.</t>
   </si>
 </sst>
 </file>
@@ -455,7 +458,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E16" sqref="E14:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,10 +519,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
+    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>44635</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>

--- a/Algemene documentatie/Logboek.xlsx
+++ b/Algemene documentatie/Logboek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\KU_Leuven\BachlorProef\BachlorProefCommunicatieEnEinde\Algemene documentatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe58f1971da5aea/KU_Leuven/BachlorProef/BachlorProefCommunicatieEnEinde/Algemene documentatie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5D9016-DAD9-43B6-B42D-314C12252779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5A5D9016-DAD9-43B6-B42D-314C12252779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAD2A3B8-EA03-41C9-87D0-404DFA4CAAA9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>TFT lcd schakeling gemaakt en beginnen met uitzoeken hoe het werkt. Het is gelukt om demo projecten up te loaden.</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Vandaag zijn de componenten toegekomen, en dus heb ik veel vooruitgang kunnen maken! De speciale druk knoppen ontbraken, en er ontbrak ook één keypad. Maar vandaag heb ik met een keypad, een lcd scherm en een solenoïde een werkende breadbord implementatie kunnen maken van het deurslot. De start en reset knop heb ik geschakelt, maar ze hebben nog niet de juiste functionaliteit in de code.</t>
+  </si>
+  <si>
+    <t>6u30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De timer werkt perfect samen met de andere code, (ik heb timer interrupt hiervoor moeten gebruiken). En ik heb ook de start en reset knop hun gewenste functie kunnen geven (ook via interrupts). Het versturen van het reset signaal is ook klaar. </t>
   </si>
 </sst>
 </file>
@@ -458,7 +464,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E14:E16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,10 +536,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>44642</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>

--- a/Algemene documentatie/Logboek.xlsx
+++ b/Algemene documentatie/Logboek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fe58f1971da5aea/KU_Leuven/BachlorProef/BachlorProefCommunicatieEnEinde/Algemene documentatie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{5A5D9016-DAD9-43B6-B42D-314C12252779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAD2A3B8-EA03-41C9-87D0-404DFA4CAAA9}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{5A5D9016-DAD9-43B6-B42D-314C12252779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7E59638-BC1E-43EF-BDDB-0C1F61BADFCA}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="10044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>TFT lcd schakeling gemaakt en beginnen met uitzoeken hoe het werkt. Het is gelukt om demo projecten up te loaden.</t>
   </si>
@@ -64,6 +64,21 @@
   </si>
   <si>
     <t xml:space="preserve">De timer werkt perfect samen met de andere code, (ik heb timer interrupt hiervoor moeten gebruiken). En ik heb ook de start en reset knop hun gewenste functie kunnen geven (ook via interrupts). Het versturen van het reset signaal is ook klaar. </t>
+  </si>
+  <si>
+    <t>Eerste keer kicad gebruiken, ik heb de schakeling van mijn breadbord kunnen uitwerken in kicad + code verfijnt + andere geholpen met communicatie. Dan zitten uitzoeken wat footprints zijn en wat ik nog allemaal zal moeten doen voor het pcb design.</t>
+  </si>
+  <si>
+    <t>De laatste footprints toegekent. De baantjes zitten trekken, tussen alle footprints, en een zeer ingewikkelde puzzel opgelost. (Opnieuw eerste keer ooit dat ik dit deed). In de middag zitten etsen, en ik heb een paar kleine dingen kunnen solderen.</t>
+  </si>
+  <si>
+    <t>9u</t>
+  </si>
+  <si>
+    <t>Gans de ochtend zitten solderen, en rond de late middag ben ik begonnen met het testen van mijn bordje. Er zaten natuurlijk nog veel fouten in.</t>
+  </si>
+  <si>
+    <t>De tweede pcb moet ik ook nog volledig designen dus dit heb ik vandaag gedaan. Digitaal is deze schakeling volledig ontworpen. + componentenlijst die nog besteld moeten worden, gemaakt en doorgegeven</t>
   </si>
 </sst>
 </file>
@@ -464,7 +479,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,25 +562,49 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>44647</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>44656</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>44687</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>44688</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
